--- a/Backlogs/Sprint Backlog 1.xlsx
+++ b/Backlogs/Sprint Backlog 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\CSE 327\Project\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C33D2B-80C5-4823-A519-0930D5F6A6E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD441E0-F25F-4C02-B7D2-3459476F50D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FD705932-2677-4D6D-BC87-451D034310FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -76,13 +76,16 @@
   </si>
   <si>
     <t>Test the system</t>
+  </si>
+  <si>
+    <t>1 hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +112,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,20 +160,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +492,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,193 +502,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1</v>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -844,6 +853,7 @@
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A3:A7"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
